--- a/biology/Médecine/Urètre_masculin/Urètre_masculin.xlsx
+++ b/biology/Médecine/Urètre_masculin/Urètre_masculin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ur%C3%A8tre_masculin</t>
+          <t>Urètre_masculin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'urètre masculin est l'urètre chez l'homme. C'est un conduit qui relie la vessie et les canaux éjaculateurs à l'extérieur. Il permet d'évacuer l'urine au cours de la miction et le sperme au cours de l'éjaculation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ur%C3%A8tre_masculin</t>
+          <t>Urètre_masculin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet et subdivisions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'urètre masculin est un conduit reliant le col de la vessie à l'extrémité distale du pénis. Il mesure approximativement 18 cm de long et son diamètre est de 10 mm. On lui distingue une partie postérieure et une partie antérieure. L'urètre postérieur est subdivisé en parties préprostatique, prostatique et membranacée. L'urètre antérieur (ou spongieux) est subdivisé en parties bulbaire et pénienne.
 L'urètre préprostatique mesure 1 cm de long ; il relie la base de la vessie et la prostate. L'urètre prostatique mesure 3 cm et traverse la prostate de haut en bas. L'urètre membranacé mesure 2 cm et traverse le diaphragme urogénital de haut en bas avec une trajectoire légèrement concave en avant. L'urètre spongieux mesure 12 cm de long et traverse le corps spongieux dans sa longueur ; sa portion bulbaire se dirige en avant, et sa portion pénienne a un trajet incurvé vers le bas.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ur%C3%A8tre_masculin</t>
+          <t>Urètre_masculin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Renflement et ouvertures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calibre de l'urètre masculin présente trois dilatations, le sinus prostatique (en), le sinus bulbaire et la fosse naviculaire (dans le gland).
 Le sinus prostatique est le siège d'un relief au niveau de la paroi postérieure, appelé  colliculus séminal (ou veru montanum). Ce relief porte trois ouvertures : l'ouverture de l'utricule prostatique, médiale, et de chaque côté de celle-ci, les ouvertures des canaux éjaculateurs. De part et d'autre du colliculus s'ouvrent les conduits prostatiques, au nombre de 15 à 20.
